--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>nome</t>
   </si>
@@ -22,30 +22,42 @@
     <t>telefone</t>
   </si>
   <si>
-    <t>vencimento</t>
-  </si>
-  <si>
-    <t>rafael</t>
-  </si>
-  <si>
-    <t>Kauany</t>
-  </si>
-  <si>
-    <t>55 13 98157-4816</t>
-  </si>
-  <si>
-    <t>Faculdade</t>
+    <t>Curso</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>+5513981317461</t>
+  </si>
+  <si>
+    <t>ads</t>
+  </si>
+  <si>
+    <t>Graucia</t>
+  </si>
+  <si>
+    <t>+55 13 99663-7736</t>
+  </si>
+  <si>
+    <t>Administração</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>+55 13 99724-0657</t>
+  </si>
+  <si>
+    <t>Arquitetura</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="165" formatCode="d1"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,12 +68,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -93,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -101,31 +107,19 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -436,9 +430,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="15.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -448,7 +442,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -456,33 +450,33 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
-        <v>13981317461</v>
-      </c>
-      <c r="C2" s="5">
-        <v>25568.875520833335</v>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8">
-        <v>45575</v>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
-        <v>551334562979</v>
-      </c>
-      <c r="C4" s="5">
-        <v>25568.875520833335</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>nome</t>
   </si>
@@ -28,19 +28,10 @@
     <t>Rafael</t>
   </si>
   <si>
-    <t>+5513981317461</t>
+    <t>+55(13)981317461</t>
   </si>
   <si>
     <t>ads</t>
-  </si>
-  <si>
-    <t>Graucia</t>
-  </si>
-  <si>
-    <t>+55 13 99663-7736</t>
-  </si>
-  <si>
-    <t>Administração</t>
   </si>
   <si>
     <t>Paula</t>
@@ -424,7 +415,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -468,17 +459,6 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
